--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.50665997833097</v>
+        <v>11.90597433333333</v>
       </c>
       <c r="H2">
-        <v>5.50665997833097</v>
+        <v>35.717923</v>
       </c>
       <c r="I2">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="J2">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N2">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>17.21217918243871</v>
+        <v>87.17470271314711</v>
       </c>
       <c r="R2">
-        <v>17.21217918243871</v>
+        <v>784.572324418324</v>
       </c>
       <c r="S2">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="T2">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1200.68090417364</v>
+        <v>1205.102620666667</v>
       </c>
       <c r="H3">
-        <v>1200.68090417364</v>
+        <v>3615.307862</v>
       </c>
       <c r="I3">
-        <v>0.9055280098475663</v>
+        <v>0.9003520325209805</v>
       </c>
       <c r="J3">
-        <v>0.9055280098475663</v>
+        <v>0.9003520325209804</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N3">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3752.970937899282</v>
+        <v>8823.676227936141</v>
       </c>
       <c r="R3">
-        <v>3752.970937899282</v>
+        <v>79413.08605142526</v>
       </c>
       <c r="S3">
-        <v>0.9055280098475663</v>
+        <v>0.9003520325209805</v>
       </c>
       <c r="T3">
-        <v>0.9055280098475663</v>
+        <v>0.9003520325209804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>119.758062174661</v>
+        <v>121.4707743333333</v>
       </c>
       <c r="H4">
-        <v>119.758062174661</v>
+        <v>364.412323</v>
       </c>
       <c r="I4">
-        <v>0.09031898427572468</v>
+        <v>0.09075281779937723</v>
       </c>
       <c r="J4">
-        <v>0.09031898427572468</v>
+        <v>0.09075281779937722</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N4">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>374.3280378311403</v>
+        <v>889.4004257339471</v>
       </c>
       <c r="R4">
-        <v>374.3280378311403</v>
+        <v>8004.603831605525</v>
       </c>
       <c r="S4">
-        <v>0.09031898427572468</v>
+        <v>0.09075281779937723</v>
       </c>
       <c r="T4">
-        <v>0.09031898427572468</v>
+        <v>0.09075281779937722</v>
       </c>
     </row>
   </sheetData>
